--- a/posesiones/1485986.xlsx
+++ b/posesiones/1485986.xlsx
@@ -1787,10 +1787,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1981,7 +1981,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>16</v>
@@ -2034,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>7</v>
@@ -2084,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2134,7 +2134,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>16</v>
@@ -2187,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R11">
         <v>24</v>
@@ -2240,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R12">
         <v>12</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2340,7 +2340,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R14">
         <v>22</v>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -2443,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R16">
         <v>15</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2546,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R18">
         <v>15</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2649,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R20">
         <v>5</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2743,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -2981,7 +2981,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R27">
         <v>16</v>
@@ -3034,7 +3034,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R28">
         <v>18</v>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3134,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R30">
         <v>21</v>
@@ -3187,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R31">
         <v>29</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3287,7 +3287,7 @@
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R33">
         <v>8</v>
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -3384,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3481,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R37">
         <v>6</v>
@@ -3531,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3581,7 +3581,7 @@
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R39">
         <v>21</v>
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -3684,7 +3684,7 @@
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R41">
         <v>9</v>
@@ -3734,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -3781,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -3969,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4019,7 +4019,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R48">
         <v>10</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -4122,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R50">
         <v>20</v>
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4225,7 +4225,7 @@
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R52">
         <v>17</v>
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -4325,7 +4325,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4372,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4422,7 +4422,7 @@
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R56">
         <v>20</v>
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R58">
         <v>8</v>
@@ -4575,7 +4575,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R59">
         <v>12</v>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4675,7 +4675,7 @@
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R61">
         <v>8</v>
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4775,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R63">
         <v>18</v>
@@ -4828,7 +4828,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R64">
         <v>17</v>
@@ -4878,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4928,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R66">
         <v>14</v>
@@ -4981,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5031,7 +5031,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R68">
         <v>9</v>
@@ -5081,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -5128,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5175,7 +5175,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5272,7 +5272,7 @@
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R73">
         <v>12</v>
@@ -5325,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5375,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R75">
         <v>19</v>
@@ -5425,7 +5425,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5475,7 +5475,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R77">
         <v>15</v>
@@ -5525,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:18">
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5669,7 +5669,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R81">
         <v>6</v>
@@ -5722,7 +5722,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R83">
         <v>6</v>
@@ -5825,7 +5825,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R84">
         <v>3</v>
@@ -5878,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5925,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R87">
         <v>8</v>
@@ -6028,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6169,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6216,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6263,7 +6263,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6310,7 +6310,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6357,7 +6357,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6454,7 +6454,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R97">
         <v>11</v>
@@ -6504,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6554,7 +6554,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R99">
         <v>14</v>
@@ -6607,7 +6607,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6657,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R101">
         <v>15</v>
@@ -6710,7 +6710,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6757,7 +6757,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6851,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6898,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -6948,7 +6948,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R107">
         <v>33</v>
@@ -6998,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7048,7 +7048,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R109">
         <v>16</v>
@@ -7101,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7151,7 +7151,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R111">
         <v>20</v>
@@ -7204,7 +7204,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7254,7 +7254,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R113">
         <v>6</v>
@@ -7310,7 +7310,7 @@
         <v>1</v>
       </c>
       <c r="Q114">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R114">
         <v>0</v>
@@ -7354,10 +7354,10 @@
         <v>1</v>
       </c>
       <c r="P115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q115">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7398,10 +7398,10 @@
         <v>1</v>
       </c>
       <c r="P116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q116">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7451,7 +7451,7 @@
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R117">
         <v>11</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7554,7 +7554,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R119">
         <v>5</v>
@@ -7604,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7654,7 +7654,7 @@
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R121">
         <v>16</v>
@@ -7707,7 +7707,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7801,7 +7801,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7848,7 +7848,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7895,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7945,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8039,7 +8039,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8086,7 +8086,7 @@
         <v>0</v>
       </c>
       <c r="Q130">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131" spans="1:18">
@@ -8136,7 +8136,7 @@
         <v>1</v>
       </c>
       <c r="Q131">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R131">
         <v>20</v>
@@ -8186,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8280,7 +8280,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8377,7 +8377,7 @@
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R136">
         <v>7</v>
@@ -8427,7 +8427,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8477,7 +8477,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R138">
         <v>22</v>
@@ -8527,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8577,7 +8577,7 @@
         <v>1</v>
       </c>
       <c r="Q140">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R140">
         <v>17</v>
@@ -8630,7 +8630,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8680,7 +8680,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R142">
         <v>10</v>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8774,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8821,7 +8821,7 @@
         <v>0</v>
       </c>
       <c r="Q145">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="146" spans="1:18">
@@ -8868,7 +8868,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -8915,7 +8915,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -8962,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="Q149">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -9056,7 +9056,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9103,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="Q151">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -9153,7 +9153,7 @@
         <v>1</v>
       </c>
       <c r="Q152">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R152">
         <v>26</v>
@@ -9206,7 +9206,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9256,7 +9256,7 @@
         <v>1</v>
       </c>
       <c r="Q154">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R154">
         <v>24</v>
@@ -9309,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9359,7 +9359,7 @@
         <v>1</v>
       </c>
       <c r="Q156">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R156">
         <v>18</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9459,7 +9459,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9506,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9553,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9600,7 +9600,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9694,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9744,7 +9744,7 @@
         <v>1</v>
       </c>
       <c r="Q164">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R164">
         <v>25</v>
@@ -9794,7 +9794,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9841,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9888,7 +9888,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -9935,7 +9935,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -9985,7 +9985,7 @@
         <v>1</v>
       </c>
       <c r="Q169">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R169">
         <v>12</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10088,7 +10088,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R171">
         <v>18</v>
@@ -10138,7 +10138,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10235,7 +10235,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10285,7 +10285,7 @@
         <v>1</v>
       </c>
       <c r="Q175">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R175">
         <v>15</v>
@@ -10335,7 +10335,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10382,7 +10382,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10429,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10479,7 +10479,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R179">
         <v>20</v>
@@ -10529,7 +10529,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10576,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10623,7 +10623,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10717,7 +10717,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10814,7 +10814,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R186">
         <v>14</v>
@@ -10867,7 +10867,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R187">
         <v>17</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -10970,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R189">
         <v>8</v>
@@ -11023,7 +11023,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11070,7 +11070,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11120,7 +11120,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11170,7 +11170,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R193">
         <v>21</v>
@@ -11220,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11270,7 +11270,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R195">
         <v>10</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11364,7 +11364,7 @@
         <v>0</v>
       </c>
       <c r="Q197">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="198" spans="1:18">
@@ -11414,7 +11414,7 @@
         <v>1</v>
       </c>
       <c r="Q198">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R198">
         <v>20</v>
@@ -11464,7 +11464,7 @@
         <v>0</v>
       </c>
       <c r="Q199">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="200" spans="1:18">
@@ -11514,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R200">
         <v>16</v>
@@ -11564,7 +11564,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11614,7 +11614,7 @@
         <v>1</v>
       </c>
       <c r="Q202">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R202">
         <v>22</v>
@@ -11667,7 +11667,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11717,7 +11717,7 @@
         <v>1</v>
       </c>
       <c r="Q204">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R204">
         <v>22</v>
@@ -11770,7 +11770,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11820,7 +11820,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R206">
         <v>21</v>
@@ -11870,7 +11870,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11920,7 +11920,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R208">
         <v>17</v>
@@ -11970,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12020,7 +12020,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R210">
         <v>8</v>
@@ -12070,7 +12070,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12120,7 +12120,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R212">
         <v>23</v>
@@ -12173,7 +12173,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12223,7 +12223,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R214">
         <v>25</v>
@@ -12273,7 +12273,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12323,7 +12323,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R216">
         <v>7</v>
@@ -12373,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12423,7 +12423,7 @@
         <v>1</v>
       </c>
       <c r="Q218">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R218">
         <v>20</v>
@@ -12476,7 +12476,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12526,7 +12526,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R220">
         <v>17</v>
@@ -12576,7 +12576,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12620,7 +12620,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12667,7 +12667,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12714,7 +12714,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12761,7 +12761,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12808,7 +12808,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12855,7 +12855,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12902,7 +12902,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12949,7 +12949,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -12996,7 +12996,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13043,7 +13043,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13090,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13137,7 +13137,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13184,7 +13184,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R234">
         <v>26</v>
@@ -13234,7 +13234,7 @@
         <v>0</v>
       </c>
       <c r="Q235">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="236" spans="1:18">
@@ -13287,7 +13287,7 @@
         <v>1</v>
       </c>
       <c r="Q236">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R236">
         <v>9</v>
@@ -13337,7 +13337,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13384,7 +13384,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13431,7 +13431,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13478,7 +13478,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13525,7 +13525,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13572,7 +13572,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="243" spans="1:18">
@@ -13619,7 +13619,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13666,7 +13666,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13760,7 +13760,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13807,7 +13807,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13854,7 +13854,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13904,7 +13904,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R249">
         <v>11</v>
@@ -13948,10 +13948,10 @@
         <v>1</v>
       </c>
       <c r="P250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q250">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -13998,7 +13998,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14045,7 +14045,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14092,7 +14092,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14139,7 +14139,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14186,7 +14186,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14233,7 +14233,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14280,7 +14280,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14327,7 +14327,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14374,7 +14374,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14421,7 +14421,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14462,10 +14462,10 @@
         <v>1</v>
       </c>
       <c r="P261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q261">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14512,7 +14512,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14559,7 +14559,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14609,7 +14609,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14659,7 +14659,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R265">
         <v>17</v>
@@ -14712,7 +14712,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14759,7 +14759,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14806,7 +14806,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14856,7 +14856,7 @@
         <v>1</v>
       </c>
       <c r="Q269">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="R269">
         <v>13</v>
@@ -14909,7 +14909,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R270">
         <v>24</v>
@@ -14962,7 +14962,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15012,7 +15012,7 @@
         <v>1</v>
       </c>
       <c r="Q272">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R272">
         <v>9</v>
@@ -15065,7 +15065,7 @@
         <v>1</v>
       </c>
       <c r="Q273">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R273">
         <v>23</v>
@@ -15115,7 +15115,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15162,7 +15162,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15212,7 +15212,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15259,7 +15259,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15306,7 +15306,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15353,7 +15353,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15403,7 +15403,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R280">
         <v>27</v>
@@ -15456,7 +15456,7 @@
         <v>1</v>
       </c>
       <c r="Q281">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R281">
         <v>26</v>
@@ -15506,7 +15506,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15556,7 +15556,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R283">
         <v>3</v>
@@ -15606,7 +15606,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15656,7 +15656,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R285">
         <v>20</v>
@@ -15706,7 +15706,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15753,7 +15753,7 @@
         <v>0</v>
       </c>
       <c r="Q287">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="288" spans="1:18">
@@ -15800,7 +15800,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15847,7 +15847,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15897,7 +15897,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R290">
         <v>6</v>
@@ -15950,7 +15950,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R291">
         <v>19</v>
@@ -16000,7 +16000,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16050,7 +16050,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R293">
         <v>21</v>
@@ -16103,7 +16103,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R294">
         <v>31</v>
@@ -16153,7 +16153,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16200,7 +16200,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16250,7 +16250,7 @@
         <v>1</v>
       </c>
       <c r="Q297">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R297">
         <v>17</v>
@@ -16300,7 +16300,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16350,7 +16350,7 @@
         <v>1</v>
       </c>
       <c r="Q299">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R299">
         <v>6</v>
@@ -16400,7 +16400,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16447,7 +16447,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16494,7 +16494,7 @@
         <v>0</v>
       </c>
       <c r="Q302">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16541,7 +16541,7 @@
         <v>0</v>
       </c>
       <c r="Q303">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="304" spans="1:18">
@@ -16588,7 +16588,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16638,7 +16638,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R305">
         <v>25</v>
@@ -16691,7 +16691,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16741,7 +16741,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R307">
         <v>13</v>
@@ -16791,7 +16791,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16838,7 +16838,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -16888,7 +16888,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R310">
         <v>26</v>
@@ -16938,7 +16938,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -16988,7 +16988,7 @@
         <v>1</v>
       </c>
       <c r="Q312">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R312">
         <v>22</v>
@@ -17041,7 +17041,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R313">
         <v>19</v>
@@ -17094,7 +17094,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R314">
         <v>17</v>
@@ -17144,7 +17144,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17194,7 +17194,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R316">
         <v>8</v>
@@ -17244,7 +17244,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17288,7 +17288,7 @@
         <v>0</v>
       </c>
       <c r="Q318">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="319" spans="1:18">
@@ -17335,7 +17335,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17382,7 +17382,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17432,7 +17432,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R321">
         <v>15</v>
@@ -17485,7 +17485,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17535,7 +17535,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R323">
         <v>12</v>
@@ -17588,7 +17588,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17638,7 +17638,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R325">
         <v>16</v>
@@ -17688,7 +17688,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17735,7 +17735,7 @@
         <v>0</v>
       </c>
       <c r="Q327">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="328" spans="1:18">
@@ -17782,7 +17782,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -17829,7 +17829,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17879,7 +17879,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R330">
         <v>33</v>
@@ -17929,7 +17929,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -17979,7 +17979,7 @@
         <v>1</v>
       </c>
       <c r="Q332">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R332">
         <v>25</v>
@@ -18032,7 +18032,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18082,7 +18082,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R334">
         <v>11</v>
@@ -18132,7 +18132,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18182,7 +18182,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R336">
         <v>22</v>
@@ -18235,7 +18235,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18285,7 +18285,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R338">
         <v>16</v>
@@ -18335,7 +18335,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18385,7 +18385,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R340">
         <v>26</v>
@@ -18435,7 +18435,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18482,7 +18482,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18529,7 +18529,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18576,7 +18576,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18623,7 +18623,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18670,7 +18670,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18717,7 +18717,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18767,7 +18767,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R348">
         <v>20</v>
@@ -18817,7 +18817,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18864,7 +18864,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18911,7 +18911,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -18958,7 +18958,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19005,7 +19005,7 @@
         <v>0</v>
       </c>
       <c r="Q353">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="354" spans="1:18">
@@ -19052,7 +19052,7 @@
         <v>0</v>
       </c>
       <c r="Q354">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19102,7 +19102,7 @@
         <v>1</v>
       </c>
       <c r="Q355">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R355">
         <v>7</v>
@@ -19152,7 +19152,7 @@
         <v>0</v>
       </c>
       <c r="Q356">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="357" spans="1:18">
@@ -19202,7 +19202,7 @@
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R357">
         <v>3</v>
@@ -19246,10 +19246,10 @@
         <v>1</v>
       </c>
       <c r="P358" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q358">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19296,7 +19296,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19343,7 +19343,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19390,7 +19390,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19437,7 +19437,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19484,7 +19484,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19531,7 +19531,7 @@
         <v>0</v>
       </c>
       <c r="Q364">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="365" spans="1:18">
@@ -19572,10 +19572,10 @@
         <v>1</v>
       </c>
       <c r="P365" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q365">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19625,7 +19625,7 @@
         <v>1</v>
       </c>
       <c r="Q366">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="R366">
         <v>16</v>
@@ -19675,7 +19675,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19725,7 +19725,7 @@
         <v>1</v>
       </c>
       <c r="Q368">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="R368">
         <v>25</v>
@@ -19775,7 +19775,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19825,7 +19825,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="R370">
         <v>18</v>
@@ -19875,7 +19875,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -19925,7 +19925,7 @@
         <v>1</v>
       </c>
       <c r="Q372">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="R372">
         <v>16</v>
@@ -19975,7 +19975,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20025,7 +20025,7 @@
         <v>1</v>
       </c>
       <c r="Q374">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="R374">
         <v>17</v>
@@ -20078,7 +20078,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="R375">
         <v>13</v>
@@ -20131,7 +20131,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20181,7 +20181,7 @@
         <v>1</v>
       </c>
       <c r="Q377">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="R377">
         <v>18</v>
@@ -20234,7 +20234,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20284,7 +20284,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R379">
         <v>9</v>
@@ -20337,7 +20337,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R380">
         <v>11</v>
@@ -20390,7 +20390,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20440,7 +20440,7 @@
         <v>1</v>
       </c>
       <c r="Q382">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R382">
         <v>15</v>
@@ -20490,7 +20490,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20534,7 +20534,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20584,7 +20584,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R385">
         <v>20</v>
@@ -20634,7 +20634,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20684,7 +20684,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R387">
         <v>20</v>
@@ -20734,7 +20734,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20784,7 +20784,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20834,7 +20834,7 @@
         <v>1</v>
       </c>
       <c r="Q390">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R390">
         <v>8</v>
@@ -20887,7 +20887,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20934,7 +20934,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -20984,7 +20984,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21034,7 +21034,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R394">
         <v>12</v>
@@ -21084,7 +21084,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21131,7 +21131,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21178,7 +21178,7 @@
         <v>0</v>
       </c>
       <c r="Q397">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="398" spans="1:18">
@@ -21225,7 +21225,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21272,7 +21272,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21319,7 +21319,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21366,7 +21366,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21416,7 +21416,7 @@
         <v>1</v>
       </c>
       <c r="Q402">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R402">
         <v>10</v>
@@ -21469,7 +21469,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21516,7 +21516,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21563,7 +21563,7 @@
         <v>0</v>
       </c>
       <c r="Q405">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="406" spans="1:18">
@@ -21613,7 +21613,7 @@
         <v>1</v>
       </c>
       <c r="Q406">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R406">
         <v>21</v>
@@ -21663,7 +21663,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21713,7 +21713,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R408">
         <v>6</v>
@@ -21766,7 +21766,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -21813,7 +21813,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21860,7 +21860,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21907,7 +21907,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -21954,7 +21954,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22004,7 +22004,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R414">
         <v>31</v>
@@ -22057,7 +22057,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22107,7 +22107,7 @@
         <v>1</v>
       </c>
       <c r="Q416">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R416">
         <v>21</v>
@@ -22157,7 +22157,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22204,7 +22204,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22251,7 +22251,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22298,7 +22298,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22345,7 +22345,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22392,7 +22392,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22442,7 +22442,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R423">
         <v>17</v>
@@ -22495,7 +22495,7 @@
         <v>1</v>
       </c>
       <c r="Q424">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R424">
         <v>20</v>
@@ -22548,7 +22548,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R425">
         <v>19</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22648,7 +22648,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22695,7 +22695,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22742,7 +22742,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22792,7 +22792,7 @@
         <v>1</v>
       </c>
       <c r="Q430">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R430">
         <v>20</v>
@@ -22842,7 +22842,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22889,7 +22889,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -22936,7 +22936,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -22983,7 +22983,7 @@
         <v>0</v>
       </c>
       <c r="Q434">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="435" spans="1:18">
@@ -23030,7 +23030,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23080,7 +23080,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R436">
         <v>24</v>
@@ -23130,7 +23130,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23180,7 +23180,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R438">
         <v>5</v>
@@ -23227,7 +23227,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23277,7 +23277,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R440">
         <v>14</v>
@@ -23327,7 +23327,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23374,7 +23374,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23471,7 +23471,7 @@
         <v>1</v>
       </c>
       <c r="Q444">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R444">
         <v>0</v>
@@ -23521,7 +23521,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23568,7 +23568,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23618,7 +23618,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R447">
         <v>25</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23718,7 +23718,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R449">
         <v>24</v>
@@ -23771,7 +23771,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23821,7 +23821,7 @@
         <v>1</v>
       </c>
       <c r="Q451">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R451">
         <v>19</v>
@@ -23874,7 +23874,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R452">
         <v>24</v>
@@ -23924,7 +23924,7 @@
         <v>0</v>
       </c>
       <c r="Q453">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="454" spans="1:18">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24018,7 +24018,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24112,7 +24112,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24159,7 +24159,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24209,7 +24209,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R459">
         <v>26</v>
@@ -24262,7 +24262,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R460">
         <v>16</v>
@@ -24312,7 +24312,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24359,7 +24359,7 @@
         <v>0</v>
       </c>
       <c r="Q462">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="463" spans="1:18">
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24456,7 +24456,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R464">
         <v>15</v>
@@ -24503,7 +24503,7 @@
         <v>0</v>
       </c>
       <c r="Q465">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="466" spans="1:18">
@@ -24553,7 +24553,7 @@
         <v>1</v>
       </c>
       <c r="Q466">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R466">
         <v>6</v>
@@ -24600,7 +24600,7 @@
         <v>0</v>
       </c>
       <c r="Q467">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="468" spans="1:18">
@@ -24647,7 +24647,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24741,7 +24741,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -24788,7 +24788,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24838,7 +24838,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R472">
         <v>8</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -24938,7 +24938,7 @@
         <v>1</v>
       </c>
       <c r="Q474">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R474">
         <v>1</v>
@@ -24988,7 +24988,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25035,7 +25035,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25085,7 +25085,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25135,7 +25135,7 @@
         <v>1</v>
       </c>
       <c r="Q478">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R478">
         <v>10</v>
@@ -25179,10 +25179,10 @@
         <v>1</v>
       </c>
       <c r="P479" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q479">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25223,7 +25223,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
